--- a/biology/Zoologie/Carne_de_porco_à_alentejana/Carne_de_porco_à_alentejana.xlsx
+++ b/biology/Zoologie/Carne_de_porco_à_alentejana/Carne_de_porco_à_alentejana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carne_de_porco_%C3%A0_alentejana</t>
+          <t>Carne_de_porco_à_alentejana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Porc à la mode de l'Alentejo
-La carne de porco à alentejana (« porc à la mode de l'Alentejo », littéralement « viande de porc à l'alentejaine ») est une spécialité culinaire traditionnelle de la cuisine portugaise, plus particulièrement des régions de l'Algarve et de l'Alentejo (sud du pays). Elle est à base d'émincé de porc, de palourdes et de pommes de terre, cuisinés au vin blanc et au paprika[1],[2],[3]. 
+La carne de porco à alentejana (« porc à la mode de l'Alentejo », littéralement « viande de porc à l'alentejaine ») est une spécialité culinaire traditionnelle de la cuisine portugaise, plus particulièrement des régions de l'Algarve et de l'Alentejo (sud du pays). Elle est à base d'émincé de porc, de palourdes et de pommes de terre, cuisinés au vin blanc et au paprika. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carne_de_porco_%C3%A0_alentejana</t>
+          <t>Carne_de_porco_à_alentejana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette spécialité culinaire traditionnelle est réalisée à base de produits régionaux du sud du Portugal[4],[5]. 
-La viande est marinée quelques heures dans une marinade de vin blanc, de bouquet garni, paprika, sel poivre, et parfois de cumin. Elle est ensuite revenue à l'huile d'olive à la poêle, dans une cocotte ou dans une cataplana, avant d'y ajouter les coquillages. Le plat est traditionnellement servi avec des pommes de terre au four[6],[7],[8],[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette spécialité culinaire traditionnelle est réalisée à base de produits régionaux du sud du Portugal,. 
+La viande est marinée quelques heures dans une marinade de vin blanc, de bouquet garni, paprika, sel poivre, et parfois de cumin. Elle est ensuite revenue à l'huile d'olive à la poêle, dans une cocotte ou dans une cataplana, avant d'y ajouter les coquillages. Le plat est traditionnellement servi avec des pommes de terre au four.
 </t>
         </is>
       </c>
